--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -376,7 +376,7 @@
           <t>обучение</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -399,6 +399,9 @@
         <is>
           <t>контент</t>
         </is>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -386,12 +386,18 @@
           <t>нетворкинг</t>
         </is>
       </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>аудитория</t>
         </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -396,7 +396,7 @@
           <t>аудитория</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -415,6 +415,9 @@
         <is>
           <t>спорт</t>
         </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -416,7 +416,7 @@
           <t>спорт</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -426,12 +426,18 @@
           <t>семья</t>
         </is>
       </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>проекты</t>
         </is>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -376,7 +376,7 @@
           <t>обучение</t>
         </is>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -386,9 +386,6 @@
           <t>нетворкинг</t>
         </is>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -396,9 +393,6 @@
           <t>аудитория</t>
         </is>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -406,9 +400,6 @@
           <t>контент</t>
         </is>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -416,9 +407,6 @@
           <t>спорт</t>
         </is>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -426,18 +414,12 @@
           <t>семья</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>проекты</t>
         </is>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
